--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>user_tbl</t>
   </si>
@@ -52,6 +52,75 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>sim_tbl</t>
+  </si>
+  <si>
+    <t>jrhm</t>
+  </si>
+  <si>
+    <t>iccid</t>
+  </si>
+  <si>
+    <t>llchm</t>
+  </si>
+  <si>
+    <t>llclx</t>
+  </si>
+  <si>
+    <t>khmc</t>
+  </si>
+  <si>
+    <t>jlxm</t>
+  </si>
+  <si>
+    <t>zt</t>
+  </si>
+  <si>
+    <t>dqrq</t>
+  </si>
+  <si>
+    <t>xfrq</t>
+  </si>
+  <si>
+    <t>xsrq</t>
+  </si>
+  <si>
+    <t>jhrq</t>
+  </si>
+  <si>
+    <t>zxrq</t>
+  </si>
+  <si>
+    <t>dxzh</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+  </si>
+  <si>
+    <t>bz</t>
+  </si>
+  <si>
+    <t>kh_tbl</t>
+  </si>
+  <si>
+    <t>khdm</t>
+  </si>
+  <si>
+    <t>lxfs</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>khjl_tbl</t>
+  </si>
+  <si>
+    <t>llc_tbl</t>
+  </si>
+  <si>
+    <t>llcdm</t>
   </si>
 </sst>
 </file>
@@ -59,12 +128,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,9 +149,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,22 +208,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,83 +254,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,13 +295,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,163 +397,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,10 +491,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -441,8 +501,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,16 +523,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,11 +557,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,168 +586,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,13 +1088,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1085,6 +1147,280 @@
       </c>
       <c r="B7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18375" windowHeight="6075"/>
+    <workbookView windowWidth="17895" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>user_tbl</t>
   </si>
@@ -121,6 +121,36 @@
   </si>
   <si>
     <t>llcdm</t>
+  </si>
+  <si>
+    <t>log_tbl</t>
+  </si>
+  <si>
+    <t>lsh</t>
+  </si>
+  <si>
+    <t>rsptype</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>resultmsg</t>
+  </si>
+  <si>
+    <t>accepttype</t>
+  </si>
+  <si>
+    <t>statusinfo</t>
+  </si>
+  <si>
+    <t>fssj</t>
+  </si>
+  <si>
+    <t>xysj</t>
+  </si>
+  <si>
+    <t>acceptmesg</t>
   </si>
 </sst>
 </file>
@@ -128,8 +158,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -149,29 +179,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,49 +277,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,31 +303,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,13 +325,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,169 +487,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,11 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,6 +539,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,41 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -586,6 +605,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -594,145 +624,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,13 +1118,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1421,6 +1454,61 @@
     <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
